--- a/progress.xlsx
+++ b/progress.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\BootCamp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A9C4FC-7E44-4E69-8E9F-2BE4B9B79315}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF984138-7CF9-4E22-B23B-F883843A53BE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{87A087C4-D2D2-4CD6-87A5-887877C254B1}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -58,8 +58,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -71,8 +78,13 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -80,21 +92,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="2" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -563,7 +593,7 @@
       </c>
     </row>
     <row r="6" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" t="s">
@@ -571,7 +601,7 @@
       </c>
     </row>
     <row r="7" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
+      <c r="A7" s="2"/>
       <c r="B7" t="s">
         <v>2</v>
       </c>
@@ -597,16 +627,37 @@
       </c>
     </row>
     <row r="12" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="A12" s="2">
         <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="2"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
     </row>
     <row r="13" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
+      <c r="A13" s="2"/>
     </row>
     <row r="14" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A14">
